--- a/DAKAR_2020_Obs_Gen.xlsx
+++ b/DAKAR_2020_Obs_Gen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Ths\THESE\Premiere Partie\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE0F9F0-0D5D-43BB-A23C-5D5645DC0AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449F3ED8-7EC4-4BF7-B283-CC200DA45D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85A59AC0-2600-4355-A3F0-27733B5E2A1C}"/>
   </bookViews>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,15 +504,64 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{9797F337-3EC7-4F06-9EA8-BB96D1163AB9}">
+  <we:reference id="wa200005502" version="1.0.0.11" store="fr-FR" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005502" version="1.0.0.11" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="docId" value="&quot;vP5WTI1DqftGwPjgelnwV&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HLIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CLASSIFY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TRANSLATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TAG</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CONVERT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SUMMARIZE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HSPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EDIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_MATCH</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_VISION</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_WEB</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF7C0B9-74CC-4E97-AC12-D054296664CE}">
   <dimension ref="A1:B8761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" style="2" customWidth="1"/>
